--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2560566.177320853</v>
+        <v>2558020.991247568</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>201.9114025215302</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>112.8682054096739</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8.787420751036338</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>28.558827064471</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>238.4258463375498</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>53.67502839974737</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>112.2638403784901</v>
       </c>
       <c r="X7" t="n">
-        <v>25.9322380811392</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.37349714962101</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>151.0952508954255</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>56.35124001368203</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -1345,7 +1345,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>21.37104798664848</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>102.15578456998</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>105.7906564314215</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428527</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671011865</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.8605623338611</v>
       </c>
     </row>
     <row r="17">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>67.96386702300542</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>177.3149031090614</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>71.79687029691044</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>198.9107847550995</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>72.01539947949706</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="D31" t="n">
-        <v>34.45703212904731</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2811815126426057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>35.55160172423425</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>80.10107535865933</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.24347904696366</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,13 +3670,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.3722917337067</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.32649042089713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>112.6849016609953</v>
       </c>
     </row>
     <row r="44">
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>79.41314830963803</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.534876920951</v>
+        <v>1175.00952757579</v>
       </c>
       <c r="C2" t="n">
-        <v>990.5839652830418</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1971.274048960885</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1971.274048960885</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1581.134716985073</v>
+        <v>1175.00952757579</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4419,7 +4419,7 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146241</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
-        <v>380.6911546495019</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W4" t="n">
-        <v>380.6911546495019</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X4" t="n">
-        <v>380.6911546495019</v>
+        <v>62.81916439716883</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6911546495019</v>
+        <v>62.81916439716883</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1341.294330781294</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
         <v>614.0661152341316</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1727.894170845416</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1727.894170845416</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="6">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>701.9348043264956</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>701.9348043264956</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>551.8181649141599</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>551.8181649141599</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X7" t="n">
-        <v>701.9348043264956</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.9348043264956</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.992732478547</v>
+        <v>999.560246824487</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>630.5977298840753</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>477.9762643331404</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>477.9762643331404</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>471.030763583937</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>617.9730006750465</v>
+        <v>785.3786496953994</v>
       </c>
       <c r="M8" t="n">
-        <v>1249.690811658358</v>
+        <v>1417.096460678711</v>
       </c>
       <c r="N8" t="n">
-        <v>1794.077600226718</v>
+        <v>2044.404128738558</v>
       </c>
       <c r="O8" t="n">
-        <v>2341.238804993795</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4835,19 +4835,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2112.394500419803</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>1759.625845149689</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.620445413572</v>
+        <v>1386.160086888609</v>
       </c>
       <c r="Y8" t="n">
-        <v>1602.48111343776</v>
+        <v>1386.160086888609</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>149.102466759631</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>478.5308710654409</v>
       </c>
       <c r="L9" t="n">
-        <v>639.260235998764</v>
+        <v>982.8924109315594</v>
       </c>
       <c r="M9" t="n">
-        <v>1279.805585465869</v>
+        <v>1623.437760398664</v>
       </c>
       <c r="N9" t="n">
-        <v>1947.349985492879</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
-        <v>2496.785994245602</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2605.4756217729</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>240.753752507634</v>
+        <v>110.8634262786291</v>
       </c>
       <c r="C10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>490.3302205638821</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="U10" t="n">
-        <v>468.7433034056513</v>
+        <v>331.6560054221592</v>
       </c>
       <c r="V10" t="n">
-        <v>468.7433034056513</v>
+        <v>331.6560054221592</v>
       </c>
       <c r="W10" t="n">
-        <v>468.7433034056513</v>
+        <v>331.6560054221592</v>
       </c>
       <c r="X10" t="n">
-        <v>240.753752507634</v>
+        <v>331.6560054221592</v>
       </c>
       <c r="Y10" t="n">
-        <v>240.753752507634</v>
+        <v>110.8634262786291</v>
       </c>
     </row>
     <row r="11">
@@ -5018,43 +5018,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5063,25 +5063,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239597</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
         <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297698</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297698</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5264,43 +5264,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>172.349019141113</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400749</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C16" t="n">
-        <v>344.917417812168</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.38585385471</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648823</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611862</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138447</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703146</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.644273983533</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138415</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5738,10 +5738,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5753,10 +5753,10 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.07903472198</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961267</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5987,16 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355936</v>
@@ -6075,10 +6075,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683104</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647281</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="C25" t="n">
-        <v>631.5645865368213</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D25" t="n">
-        <v>481.4479471244855</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>333.5348535420924</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1996.142560886457</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1707.067334230655</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1452.382846024768</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1162.965675987807</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>934.9761250897898</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949679</v>
+        <v>714.1835459462596</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1021.293348608258</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>852.3571656803514</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1202.941813438498</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6479,7 +6479,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819173</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6716,10 +6716,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.9745311434716</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C34" t="n">
-        <v>701.0383482155647</v>
+        <v>741.843151638089</v>
       </c>
       <c r="D34" t="n">
-        <v>550.921708803229</v>
+        <v>591.7265122257533</v>
       </c>
       <c r="E34" t="n">
-        <v>403.0086152208358</v>
+        <v>443.8134186433601</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>296.9234711454498</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>129.7273718603297</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>129.7273718603297</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.415575117241</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.622995973711</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M36" t="n">
-        <v>1540.888753373306</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>808.8888553856866</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>639.9526724577797</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>489.836033045444</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>341.9229394630509</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>990.5373202159263</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7184,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327652</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,25 +7488,25 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2497.745796000626</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="44">
@@ -7728,19 +7728,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206043</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1964.291482935239</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.606994729352</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.189824692392</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.200273794374</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4076946508441</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8067,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8462,16 +8462,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>353.5884602791688</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>18.46138444627854</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>102.3538970397734</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.157046754056925</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>-5.40012479177676e-13</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>-1.656456738330659e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-8.013003602730812e-14</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q29" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-1.656456738330659e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>63.36835372228886</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>146.3469868924065</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409392708</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.8681131589319</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.3791545843328</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>48.39475227997573</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>73.6241777260208</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>18.49466557218875</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>76.60007353871529</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>37.1260136526042</v>
       </c>
       <c r="D31" t="n">
-        <v>114.158440889165</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.1398665102886</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>45.71423459433127</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>65.31997266427192</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0033420516642</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>6.922421112517128</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>105.8997516910995</v>
       </c>
     </row>
     <row r="44">
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>206.7713260796061</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>791847.4864178548</v>
+        <v>791847.4864178547</v>
       </c>
     </row>
     <row r="12">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597546</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
@@ -26347,13 +26347,13 @@
         <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808066</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682736</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.53656668274</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682724</v>
+        <v>5677.536566682736</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682742</v>
+        <v>5677.536566682721</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682725</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682729</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682729</v>
+        <v>5677.536566682749</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682736</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682766</v>
+        <v>5677.536566682757</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682768</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246442.0010961678</v>
+        <v>-246442.0010961675</v>
       </c>
       <c r="C6" t="n">
         <v>343525.8781183768</v>
       </c>
       <c r="D6" t="n">
-        <v>187722.0720245822</v>
+        <v>187722.0720245821</v>
       </c>
       <c r="E6" t="n">
-        <v>-252314.1430116416</v>
+        <v>-252348.8809370771</v>
       </c>
       <c r="F6" t="n">
-        <v>518738.5483691651</v>
+        <v>518703.8104437295</v>
       </c>
       <c r="G6" t="n">
-        <v>518738.548369165</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="H6" t="n">
-        <v>518738.5483691652</v>
+        <v>518703.8104437289</v>
       </c>
       <c r="I6" t="n">
-        <v>518738.5483691649</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="J6" t="n">
-        <v>342315.329176572</v>
+        <v>342280.5912511362</v>
       </c>
       <c r="K6" t="n">
-        <v>518738.5483691648</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="L6" t="n">
-        <v>518738.548369165</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="M6" t="n">
-        <v>394530.0376611063</v>
+        <v>394495.2997356707</v>
       </c>
       <c r="N6" t="n">
-        <v>518738.5483691648</v>
+        <v>518703.8104437292</v>
       </c>
       <c r="O6" t="n">
-        <v>518738.5483691651</v>
+        <v>518703.8104437292</v>
       </c>
       <c r="P6" t="n">
-        <v>518738.5483691649</v>
+        <v>518703.8104437294</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.218948313933275e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26796,10 +26796,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>163.3614892494774</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>273.3697332463797</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>171.044559430901</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>223.578816259357</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>126.8470454334578</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>316.0560722787217</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>174.2591579581009</v>
       </c>
       <c r="X7" t="n">
-        <v>199.777417307898</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>371.3603445138596</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>203.5877907252574</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27907,19 +27907,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>110.8955810849458</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>264.8896066714485</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-4.551261486021622e-13</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3.41060513164848e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>489.3502824033305</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31856,13 +31856,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>268.6704608606959</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32075,25 +32075,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>204.3779992811859</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
@@ -32312,10 +32312,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>748.8168776781358</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
@@ -32546,19 +32546,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>200.4500263280935</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>301.1823051500296</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,19 +33029,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>622.4211036182644</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>265.5442652399242</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
@@ -33257,16 +33257,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q30" t="n">
-        <v>359.1374415194863</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33497,25 +33497,25 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>555.1777416630679</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
@@ -33734,19 +33734,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>227.8611086463986</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2529048371025</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,13 +33968,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745674</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33983,13 +33983,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
@@ -34208,28 +34208,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>300.5543663814921</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>158.8462560123205</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34954,7 +34954,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
@@ -35182,16 +35182,16 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>549.8856450185449</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>190.3492888068437</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>96.120691857845</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.12365402878115</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>347.2162484813122</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35504,13 +35504,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O14" t="n">
         <v>696.4886512243162</v>
@@ -35723,25 +35723,25 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>77.54037261451919</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
@@ -35893,7 +35893,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>617.4751655948025</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
@@ -36121,13 +36121,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L20" t="n">
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36215,13 +36215,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>66.47561891376326</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36367,7 +36367,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
@@ -36443,13 +36443,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>159.0482712280113</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,19 +36677,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>483.8667238383903</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>134.202553156591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
@@ -36847,10 +36847,10 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q30" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789214</v>
@@ -37084,13 +37084,13 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>416.6233618831937</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
@@ -37382,19 +37382,19 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>90.01966967203961</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>471.1188709150841</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789214</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790075</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37631,13 +37631,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
@@ -37856,28 +37856,28 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>161.9999866016179</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>18.86448192629892</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789214</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
